--- a/기획서/스킬기획.xlsx
+++ b/기획서/스킬기획.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김근남\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김근남\Desktop\UnityProject\Kronos2\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F39BC45B-393C-46CE-BEE6-E8B91919A270}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C35A725-6C45-4667-8556-3A0B87C8167F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14265" yWindow="1155" windowWidth="16275" windowHeight="13230" xr2:uid="{C9628F07-69BD-40BA-B3C0-A4122E46EAC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C9628F07-69BD-40BA-B3C0-A4122E46EAC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>&lt;근접&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전방에 일정시간 뒤 폭발하는 폭탄을 날린다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>선택한 영역을 얼린다. Like 애니비아 궁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,22 +116,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일정 시간 크리티컬 확률 및 회피율 대폭증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lucky~~♬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현재 무기를 쌍권총으로 변경하며, 기본공격이 원거리 공격으로 변환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비탄의 쌍권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방패가 사라지고, 대검형태의 양손무기로 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,10 +176,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본공격이 원거리공격으로전환, 기본 회피 시 무적없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마법공격, 기본 회피가 블링크로 변경 -&gt; 쿨타임 더 김, 가까울수록 기본공격 데미지 상승</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,6 +205,58 @@
   </si>
   <si>
     <t>30초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 계수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방에 폭발하는 폭탄을 날린다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 시간 크리티컬 확률 및 크리티컬 공격력 증가 및 회피율 대폭증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150%(초당)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬 확률 100% , 회피율 40%증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격력 70%상승, 크리티컬 공격력 100%증가, 회피율 60%다운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영역의 적 속도 감소(50%) 만들고,적의 방어력을 감소(30%), 초당 도트데미지를 입힌다(5초유지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격력 50%증가, 공격 속도 100%증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60초(5초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 가호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 시간 적에게 데미지를 받지 않는 상태가 된다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -271,12 +303,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,220 +633,408 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6185006-A9D8-46CC-9C1B-C5AFCC280368}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
   </sheetData>
@@ -816,15 +1045,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100B8B359D76A58204A8949E548CE569C77" ma:contentTypeVersion="2" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="96d3726aa50e0bb908466fb90426d264">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cfaf6ef3-0dc7-498f-bf74-e45adcc41744" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6ee7fdb7ff4c5bfeae3f93f4e30df72" ns3:_="">
     <xsd:import namespace="cfaf6ef3-0dc7-498f-bf74-e45adcc41744"/>
@@ -956,6 +1176,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -963,14 +1192,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{840CABB0-1882-4447-A303-6CBA08F4F244}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{512D96B1-C198-4415-A52D-7F22D981D77A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -984,6 +1205,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{840CABB0-1882-4447-A303-6CBA08F4F244}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
